--- a/biology/Médecine/1983_en_santé_et_médecine/1983_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1983_en_santé_et_médecine/1983_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1983_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1983_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1983 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1983_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1983_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Luc Montagnier et Françoise Barré-Sinoussi font la découverte du virus de l'immunodéficience humaine (VIH) responsable du syndrome d'immunodéficience acquise (sida). Ils recevront le Prix Nobel de physiologie ou médecine en 2008.</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1983_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1983_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9 mars : Ulf von Euler (né en 1905), neurophysiologiste suédois, prix Nobel de médecine en 1970, « attribué conjointement avec Bernard Katz et Julius Axelrod, pour leurs découvertes sur les neurotransmetteurs[1] ».
-17 mars : Haldan Keffer Hartline (né en 1903), médecin et neurophysiologiste américain, lauréat du prix Nobel de  médecine en 1967, « attribué conjointement, avec Ragnar Granit et George Wald, pour leurs découvertes relatives aux processus visuels physiologiques et chimiques primaires de l’œil[2] ».
-28 avril : Pierre Huard (né en 1901), chirurgien et anatomiste français, anthropologue, historien de la médecine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9 mars : Ulf von Euler (né en 1905), neurophysiologiste suédois, prix Nobel de médecine en 1970, « attribué conjointement avec Bernard Katz et Julius Axelrod, pour leurs découvertes sur les neurotransmetteurs ».
+17 mars : Haldan Keffer Hartline (né en 1903), médecin et neurophysiologiste américain, lauréat du prix Nobel de  médecine en 1967, « attribué conjointement, avec Ragnar Granit et George Wald, pour leurs découvertes relatives aux processus visuels physiologiques et chimiques primaires de l’œil ».
+28 avril : Pierre Huard (né en 1901), chirurgien et anatomiste français, anthropologue, historien de la médecine.
 5 mai : Horst Schumann (né en 1906), médecin nazi, accusé d'« euthanasie de prisonniers ».
 10 mai : Raymond Bolzinger (né en 1901), médecin militaire français.
 12 juillet : Zénon Bacq (né en 1903), médecin et biologiste belge, militant wallon.
